--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>storyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-1001;1001-1001;8001-1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宛城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>论功封赏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +195,58 @@
   </si>
   <si>
     <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001-1001;1001-1002;8001-1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年4月，皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。皇甫嵩、朱儁乘胜进击汝南、陈国黄巾军，败波才部于阳翟，追围彭脱部于西华。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西鄂之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年4月西华之战后，皇甫嵩转战东郡。8月，皇甫嵩在东郡仓亭围追黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，西华之战后，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，广宗之战中，张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年，张温派董卓率领三万人去讨伐羌族的先零部落。羌人与胡人在望垣以北将董卓团团围住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年，黄巾乱贼大部分已经被朝廷剿灭，西北叛乱也被招抚。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年，冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。4月，波才率部击败朱儁，进围皇甫嵩于长社。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,10 +290,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,22 +602,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -586,8 +637,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -595,19 +649,22 @@
         <v>1301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -615,19 +672,22 @@
         <v>1302</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -635,19 +695,22 @@
         <v>601</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -655,19 +718,22 @@
         <v>9028</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -675,19 +741,22 @@
         <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -695,19 +764,22 @@
         <v>904</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -715,19 +787,22 @@
         <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -735,19 +810,22 @@
         <v>703</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -755,19 +833,22 @@
         <v>701</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -775,7 +856,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -784,7 +865,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -810,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -818,39 +902,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>storyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6001-50;6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对话内容，以;分割。人物ID字符串和文本用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetCity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,199 +46,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>广宗之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001;9002;9003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009;9010;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方出战将领ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，西华之战后，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（方便参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>长社之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西华之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓亭之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1007;1001-1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广宗之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榆中之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先零之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9004;9005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9005;9006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004;9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9006;9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9001;9002;9003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论功封赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方出战将领ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-1001;1001-1002;8001-1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年4月，皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。皇甫嵩、朱儁乘胜进击汝南、陈国黄巾军，败波才部于阳翟，追围彭脱部于西华。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西鄂之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年4月西华之战后，皇甫嵩转战东郡。8月，皇甫嵩在东郡仓亭围追黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，西华之战后，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年10月，广宗之战中，张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年，张温派董卓率领三万人去讨伐羌族的先零部落。羌人与胡人在望垣以北将董卓团团围住。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年，黄巾乱贼大部分已经被朝廷剿灭，西北叛乱也被招抚。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年，冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。4月，波才率部击败朱儁，进围皇甫嵩于长社。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。</t>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城，4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1006</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>1002;1003;1004;1005;1006;1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳都尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农太守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007;1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010;1011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,126 +600,158 @@
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="81.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1301</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>601</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1005</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9028</v>
+        <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -741,45 +759,57 @@
         <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>904</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1009</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -787,88 +817,25 @@
         <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>703</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>701</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -902,42 +869,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，西华之战后，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reward</t>
   </si>
   <si>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述（方便参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄巾之乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长社之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光和七年（184年）2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城，4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6001-1000;6002-1004</t>
   </si>
   <si>
@@ -196,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洛阳都尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话内容id_str，以;分割。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +209,30 @@
   </si>
   <si>
     <t>1010;1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -643,13 +643,13 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -672,13 +672,13 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -701,28 +701,28 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>2002</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>1005</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -730,13 +730,13 @@
         <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>1006</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -788,13 +788,13 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1">
         <v>3001</v>
@@ -806,10 +806,10 @@
         <v>1009</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>5001</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +850,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,42 +893,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>storyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,22 @@
   </si>
   <si>
     <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,25 +604,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="81.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="81.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,25 +634,28 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -645,26 +665,29 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -674,26 +697,29 @@
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -706,23 +732,26 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2002</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>1005</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -732,26 +761,29 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>1006</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -761,26 +793,29 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -793,23 +828,26 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3001</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
       <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>1009</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -819,22 +857,25 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5001</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -847,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,49 +926,57 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>storyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,158 +97,190 @@
     <t>reward</t>
   </si>
   <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004;9005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1006</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳都尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农太守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007;1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010;1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励官职Id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励武将Id_str, 以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长社之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004;9005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1004</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1006</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1008</t>
-  </si>
-  <si>
-    <t>宛城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-  </si>
-  <si>
-    <t>1002;1003;1004;1005;1006;1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳都尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘农太守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1007;1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010;1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1003;1004;1005;1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,14 +648,14 @@
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="81.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="81.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -643,19 +675,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -663,31 +698,34 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I2" s="1">
+        <v>1007</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -695,31 +733,34 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
+      <c r="I3" s="1">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -727,7 +768,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -736,22 +777,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1005</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -759,31 +803,34 @@
         <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>1006</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -800,22 +847,25 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -823,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -832,22 +882,25 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1">
         <v>3001</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>1009</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -864,19 +917,22 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1">
         <v>5001</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>55</v>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,10 +982,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -945,39 +1001,47 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>storyId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,257 +30,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广宗之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001;9002;9003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009;9010;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方出战将领ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reward</t>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广宗之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9001;9002;9003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方出战将领ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004;9005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1006</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳都尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农太守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007;1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010;1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1003;1004;1005;1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reward</t>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励官职Id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励武将Id_str, 以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长社之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004;9005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1004</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1006</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1008</t>
-  </si>
-  <si>
-    <t>宛城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳都尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘农太守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1007;1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010;1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000;404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002;1003;1004;1005;1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000;402-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,61 +644,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="81.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="81.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -698,34 +709,37 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>1007</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -733,34 +747,37 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
+      <c r="J3" s="1">
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -768,7 +785,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -776,26 +793,29 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2002</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1005</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2002</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -803,34 +823,37 @@
         <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>1006</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="L5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -838,34 +861,37 @@
         <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -873,34 +899,37 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1009</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1009</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -908,31 +937,34 @@
         <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1">
         <v>5001</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>53</v>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -944,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -966,82 +998,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,253 +42,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9001;9002;9003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009;9010;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方出战将领ID字符串，以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004;9005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1006</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳都尉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农太守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007;1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010;1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1003;1004;1005;1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>广宗之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9001;9002;9003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方出战将领ID字符串，以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励官职Id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励武将Id_str, 以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长社之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004;9005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1004</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1006</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1008</t>
-  </si>
-  <si>
-    <t>宛城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为洛阳都尉。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳都尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘农太守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年），皇子刘辩因平定黄巾起义军有功，被提升为弘农太守。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1007;1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010;1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳，汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫嵩大败张梁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。11月，张温派周慎率军围困榆中城。皇子刘辩因凉州平乱有功，被提升为凉州牧（刺史）。（虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000;404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002;1003;1004;1005;1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000;402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗ID字符串，0标识无战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +647,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,31 +674,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -709,22 +709,22 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>1007</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -747,22 +747,22 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -785,7 +785,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
         <v>2002</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2">
         <v>1005</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -823,22 +823,22 @@
         <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>1006</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -861,22 +861,22 @@
         <v>902</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>103</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -899,7 +899,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
         <v>3001</v>
@@ -926,7 +926,7 @@
         <v>1009</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -937,22 +937,22 @@
         <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>104</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1">
         <v>5001</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -998,90 +998,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig1.xlsx
+++ b/tbl打包工具/excel/storyConfig1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>storyId</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情类型，1事件叙述，2武将来投，3主线任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -627,6 +623,50 @@
   </si>
   <si>
     <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移至城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封官拜将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,12 +764,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -771,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1126,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1147,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1155,22 +1198,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>405</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1179,13 +1222,13 @@
         <v>2003</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="6">
         <v>1001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1199,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1208,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1223,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1231,22 +1274,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1261,7 +1304,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1269,13 +1312,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>211</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1284,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1299,7 +1342,7 @@
         <v>1002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1307,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1322,7 +1365,7 @@
         <v>101</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1337,7 +1380,7 @@
         <v>1003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1351,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1375,7 +1418,7 @@
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1383,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>407</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1398,7 +1441,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1413,7 +1456,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1421,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>207</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1436,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1451,7 +1494,7 @@
         <v>1004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1465,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1486,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1503,7 +1546,7 @@
         <v>217</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1512,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1521,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="6">
         <v>1005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1535,22 +1578,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1565,7 +1608,7 @@
         <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1579,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1600,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1611,13 +1654,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>9010</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1626,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1641,7 +1684,7 @@
         <v>1006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1649,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <v>401</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1664,7 +1707,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1679,7 +1722,7 @@
         <v>1007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1687,13 +1730,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>219</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1702,7 +1745,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1717,7 +1760,7 @@
         <v>1008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1725,13 +1768,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>217</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1740,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1755,7 +1798,7 @@
         <v>1009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1769,31 +1812,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1801,13 +1844,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5">
         <v>217</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -1816,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1831,7 +1874,7 @@
         <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1839,13 +1882,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1854,7 +1897,7 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1869,7 +1912,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1877,13 +1920,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1892,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1907,7 +1950,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1921,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1945,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1959,7 +2002,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1968,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -1977,13 +2020,13 @@
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1997,7 +2040,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2006,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2021,7 +2064,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2035,31 +2078,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2073,16 +2116,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2097,7 +2140,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2111,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2120,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2135,7 +2178,7 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2149,19 +2192,19 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2173,7 +2216,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2187,7 +2230,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2196,10 +2239,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2211,7 +2254,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2225,7 +2268,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2234,10 +2277,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2249,7 +2292,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2263,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2287,7 +2330,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2301,31 +2344,31 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2339,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2363,7 +2406,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2377,7 +2420,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2386,10 +2429,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2401,22 +2444,22 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" activeCellId="1" sqref="F14 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2438,7 +2481,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2446,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2510,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -2519,6 +2562,78 @@
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
